--- a/data/cohorts_rate.xlsx
+++ b/data/cohorts_rate.xlsx
@@ -1,21 +1,272 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\escas\Dropbox (University of Oregon)\Winter 2022\Data Viz\dataviz_final\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFF2322-7CF2-4E2E-BBF5-00923803F2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+  <si>
+    <t>stnam</t>
+  </si>
+  <si>
+    <t>state_cwd</t>
+  </si>
+  <si>
+    <t>se_cwd</t>
+  </si>
+  <si>
+    <t>state_ecd</t>
+  </si>
+  <si>
+    <t>se_ecd</t>
+  </si>
+  <si>
+    <t>state_lep</t>
+  </si>
+  <si>
+    <t>se_lep</t>
+  </si>
+  <si>
+    <t>state_mam</t>
+  </si>
+  <si>
+    <t>se_mam</t>
+  </si>
+  <si>
+    <t>state_mas</t>
+  </si>
+  <si>
+    <t>se_mas</t>
+  </si>
+  <si>
+    <t>state_mhi</t>
+  </si>
+  <si>
+    <t>se_mhi</t>
+  </si>
+  <si>
+    <t>state_mwh</t>
+  </si>
+  <si>
+    <t>se_mwh</t>
+  </si>
+  <si>
+    <t>state_mtr</t>
+  </si>
+  <si>
+    <t>se_mtr</t>
+  </si>
+  <si>
+    <t>ALASKA</t>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>ILLINOIS</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>LOUISIANA</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>MARYLAND</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>MISSOURI</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>NEW JERSEY</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>VERMONT</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
+  </si>
+  <si>
+    <t>stabbr</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +314,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +400,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +452,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,1605 +645,1607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stnam</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>state_cwd</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>se_cwd</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>state_ecd</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>se_ecd</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>state_lep</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>se_lep</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>state_mam</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>se_mam</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>state_mas</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>se_mas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>state_mhi</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>se_mhi</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>state_mwh</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>se_mwh</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>state_mtr</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>se_mtr</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ALASKA</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>40.08333333333334</v>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>6.17038176380612</v>
+        <v>40.083333333333343</v>
       </c>
       <c r="D2">
+        <v>6.1703817638061196</v>
+      </c>
+      <c r="E2">
         <v>51</v>
       </c>
-      <c r="E2">
-        <v>2.720622302761946</v>
-      </c>
       <c r="F2">
+        <v>2.7206223027619458</v>
+      </c>
+      <c r="G2">
         <v>39.5</v>
       </c>
-      <c r="G2">
-        <v>4.382731264101569</v>
-      </c>
       <c r="H2">
+        <v>4.3827312641015688</v>
+      </c>
+      <c r="I2">
         <v>48.5625</v>
       </c>
-      <c r="I2">
-        <v>3.305079289085643</v>
-      </c>
       <c r="J2">
+        <v>3.3050792890856431</v>
+      </c>
+      <c r="K2">
         <v>76.625</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2.648702512552136</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>62.3</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3.494996423460258</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>67.125</v>
       </c>
-      <c r="O2">
-        <v>5.786182741176233</v>
-      </c>
       <c r="P2">
-        <v>67.16666666666667</v>
+        <v>5.7861827411762334</v>
       </c>
       <c r="Q2">
-        <v>1.301708279317776</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ARKANSAS</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>71.70588235294117</v>
+        <v>67.166666666666671</v>
+      </c>
+      <c r="R2">
+        <v>1.3017082793177761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>2.07712454291552</v>
+        <v>71.705882352941174</v>
       </c>
       <c r="D3">
+        <v>2.0771245429155201</v>
+      </c>
+      <c r="E3">
         <v>72.86</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.866931528828343</v>
       </c>
-      <c r="F3">
-        <v>70.57142857142857</v>
-      </c>
       <c r="G3">
-        <v>3.813242232868325</v>
+        <v>70.571428571428569</v>
       </c>
       <c r="H3">
+        <v>3.8132422328683249</v>
+      </c>
+      <c r="I3">
         <v>69.5</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>66.5</v>
       </c>
-      <c r="K3">
-        <v>9.334077351297235</v>
-      </c>
       <c r="L3">
-        <v>70.23076923076923</v>
+        <v>9.3340773512972355</v>
       </c>
       <c r="M3">
-        <v>3.314988970383953</v>
+        <v>70.230769230769226</v>
       </c>
       <c r="N3">
+        <v>3.3149889703839528</v>
+      </c>
+      <c r="O3">
         <v>82.1875</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.549547765958025</v>
       </c>
-      <c r="P3">
-        <v>76.16666666666667</v>
-      </c>
       <c r="Q3">
-        <v>4.409585518440984</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CALIFORNIA</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>67.00220264317181</v>
+        <v>76.166666666666671</v>
+      </c>
+      <c r="R3">
+        <v>4.4095855184409842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>0.8496795060062062</v>
+        <v>67.002202643171813</v>
       </c>
       <c r="D4">
-        <v>79.3045267489712</v>
+        <v>0.84967950600620623</v>
       </c>
       <c r="E4">
-        <v>0.5360989191940608</v>
+        <v>79.304526748971199</v>
       </c>
       <c r="F4">
+        <v>0.53609891919406083</v>
+      </c>
+      <c r="G4">
         <v>70.36009174311927</v>
       </c>
-      <c r="G4">
-        <v>0.783178089238983</v>
-      </c>
       <c r="H4">
-        <v>66.84848484848484</v>
+        <v>0.78317808923898302</v>
       </c>
       <c r="I4">
-        <v>2.137384239343316</v>
+        <v>66.848484848484844</v>
       </c>
       <c r="J4">
-        <v>88.91269841269842</v>
+        <v>2.1373842393433158</v>
       </c>
       <c r="K4">
-        <v>0.5908583845875762</v>
+        <v>88.912698412698418</v>
       </c>
       <c r="L4">
-        <v>79.81497797356828</v>
+        <v>0.59085838458757622</v>
       </c>
       <c r="M4">
-        <v>0.5729199618248597</v>
+        <v>79.814977973568276</v>
       </c>
       <c r="N4">
-        <v>87.1784140969163</v>
+        <v>0.57291996182485971</v>
       </c>
       <c r="O4">
+        <v>87.178414096916299</v>
+      </c>
+      <c r="P4">
         <v>0.5030127205031022</v>
       </c>
-      <c r="P4">
-        <v>73.11607142857143</v>
-      </c>
       <c r="Q4">
-        <v>1.900443859272064</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DELAWARE</t>
-        </is>
-      </c>
-      <c r="B5">
+        <v>73.116071428571431</v>
+      </c>
+      <c r="R4">
+        <v>1.9004438592720641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
         <v>52</v>
       </c>
-      <c r="C5">
-        <v>4.225771273642583</v>
-      </c>
       <c r="D5">
-        <v>70.28571428571429</v>
+        <v>4.2257712736425832</v>
       </c>
       <c r="E5">
-        <v>3.106937595847363</v>
+        <v>70.285714285714292</v>
       </c>
       <c r="F5">
+        <v>3.1069375958473628</v>
+      </c>
+      <c r="G5">
         <v>62.5</v>
       </c>
-      <c r="G5">
-        <v>2.893959225697556</v>
-      </c>
-      <c r="J5">
+      <c r="H5">
+        <v>2.8939592256975559</v>
+      </c>
+      <c r="K5">
         <v>84.5</v>
       </c>
-      <c r="L5">
-        <v>68.78571428571429</v>
-      </c>
       <c r="M5">
+        <v>68.785714285714292</v>
+      </c>
+      <c r="N5">
         <v>3.523487758797319</v>
       </c>
-      <c r="N5">
-        <v>79.57142857142857</v>
-      </c>
       <c r="O5">
-        <v>3.558070255851932</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GEORGIA</t>
-        </is>
-      </c>
-      <c r="B6">
+        <v>79.571428571428569</v>
+      </c>
+      <c r="P5">
+        <v>3.5580702558519319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
         <v>31.9</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.673607018381974</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>61.734375</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.337093319625412</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>36</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.894289664579663</v>
       </c>
-      <c r="H6">
-        <v>62.83333333333334</v>
-      </c>
       <c r="I6">
-        <v>7.264831572567791</v>
+        <v>62.833333333333343</v>
       </c>
       <c r="J6">
-        <v>75.38888888888889</v>
+        <v>7.2648315725677914</v>
       </c>
       <c r="K6">
-        <v>2.963987431823187</v>
+        <v>75.388888888888886</v>
       </c>
       <c r="L6">
-        <v>63.27551020408163</v>
+        <v>2.9639874318231869</v>
       </c>
       <c r="M6">
-        <v>1.67305712940933</v>
+        <v>63.275510204081627</v>
       </c>
       <c r="N6">
+        <v>1.6730571294093299</v>
+      </c>
+      <c r="O6">
         <v>72.2890625</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1.429814890456014</v>
       </c>
-      <c r="P6">
-        <v>65.83333333333333</v>
-      </c>
       <c r="Q6">
-        <v>2.202836903053864</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ILLINOIS</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>70.34090909090909</v>
+        <v>65.833333333333329</v>
+      </c>
+      <c r="R6">
+        <v>2.2028369030538641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
       <c r="C7">
+        <v>70.340909090909093</v>
+      </c>
+      <c r="D7">
         <v>1.251502374435399</v>
       </c>
-      <c r="D7">
-        <v>76.21511627906976</v>
-      </c>
       <c r="E7">
-        <v>0.982352514929962</v>
+        <v>76.215116279069761</v>
       </c>
       <c r="F7">
-        <v>63.43023255813954</v>
+        <v>0.98235251492996201</v>
       </c>
       <c r="G7">
+        <v>63.430232558139537</v>
+      </c>
+      <c r="H7">
         <v>2.060517236841072</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>65.75</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>11.25</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>82.86666666666666</v>
       </c>
-      <c r="K7">
-        <v>2.577589620938184</v>
-      </c>
       <c r="L7">
-        <v>76.85294117647059</v>
+        <v>2.5775896209381841</v>
       </c>
       <c r="M7">
-        <v>1.126495631683145</v>
+        <v>76.852941176470594</v>
       </c>
       <c r="N7">
+        <v>1.1264956316831449</v>
+      </c>
+      <c r="O7">
         <v>88</v>
       </c>
-      <c r="O7">
-        <v>0.7338659337833505</v>
-      </c>
       <c r="P7">
-        <v>73.7741935483871</v>
+        <v>0.73386593378335052</v>
       </c>
       <c r="Q7">
-        <v>2.128889698713612</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>INDIANA</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>64.13888888888889</v>
+        <v>73.774193548387103</v>
+      </c>
+      <c r="R7">
+        <v>2.1288896987136119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
       </c>
       <c r="C8">
+        <v>64.138888888888886</v>
+      </c>
+      <c r="D8">
         <v>1.447691279105924</v>
       </c>
-      <c r="D8">
-        <v>80.98113207547169</v>
-      </c>
       <c r="E8">
-        <v>0.9524205531391572</v>
+        <v>80.981132075471692</v>
       </c>
       <c r="F8">
-        <v>71.23076923076923</v>
+        <v>0.95242055313915719</v>
       </c>
       <c r="G8">
+        <v>71.230769230769226</v>
+      </c>
+      <c r="H8">
         <v>3.092907200465338</v>
       </c>
-      <c r="J8">
-        <v>77.83333333333333</v>
-      </c>
       <c r="K8">
+        <v>77.833333333333329</v>
+      </c>
+      <c r="L8">
         <v>11.75561331638824</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>78.86363636363636</v>
       </c>
-      <c r="M8">
-        <v>1.718621533784343</v>
-      </c>
       <c r="N8">
-        <v>87.37037037037037</v>
+        <v>1.7186215337843429</v>
       </c>
       <c r="O8">
+        <v>87.370370370370367</v>
+      </c>
+      <c r="P8">
         <v>0.8435624999560748</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>73.40625</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2.73831561289661</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IOWA</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>62.92105263157895</v>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
       </c>
       <c r="C9">
+        <v>62.921052631578952</v>
+      </c>
+      <c r="D9">
         <v>2.68476946364963</v>
       </c>
-      <c r="D9">
-        <v>74.43181818181819</v>
-      </c>
       <c r="E9">
-        <v>2.044498333492902</v>
+        <v>74.431818181818187</v>
       </c>
       <c r="F9">
-        <v>67.27777777777777</v>
+        <v>2.0444983334929021</v>
       </c>
       <c r="G9">
-        <v>2.583482671908094</v>
+        <v>67.277777777777771</v>
       </c>
       <c r="H9">
+        <v>2.5834826719080941</v>
+      </c>
+      <c r="I9">
         <v>49.5</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>77</v>
       </c>
-      <c r="K9">
-        <v>3.354101966249684</v>
-      </c>
       <c r="L9">
-        <v>71.22727272727273</v>
+        <v>3.3541019662496838</v>
       </c>
       <c r="M9">
-        <v>3.517077580995876</v>
+        <v>71.227272727272734</v>
       </c>
       <c r="N9">
+        <v>3.5170775809958759</v>
+      </c>
+      <c r="O9">
         <v>86.30952380952381</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1.421131419845348</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>83.25</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1.25</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>KANSAS</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>70.30882352941177</v>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>1.916600561428694</v>
+        <v>70.308823529411768</v>
       </c>
       <c r="D10">
-        <v>73.44186046511628</v>
+        <v>1.9166005614286941</v>
       </c>
       <c r="E10">
-        <v>2.192444573215915</v>
+        <v>73.441860465116278</v>
       </c>
       <c r="F10">
-        <v>71.32142857142857</v>
+        <v>2.1924445732159148</v>
       </c>
       <c r="G10">
-        <v>3.351072955473252</v>
+        <v>71.321428571428569</v>
       </c>
       <c r="H10">
+        <v>3.3510729554732519</v>
+      </c>
+      <c r="I10">
         <v>68.875</v>
       </c>
-      <c r="I10">
-        <v>6.643841132959156</v>
-      </c>
       <c r="J10">
-        <v>73.66666666666667</v>
+        <v>6.6438411329591558</v>
       </c>
       <c r="K10">
-        <v>2.204792759220492</v>
+        <v>73.666666666666671</v>
       </c>
       <c r="L10">
+        <v>2.2047927592204921</v>
+      </c>
+      <c r="M10">
         <v>69.64</v>
       </c>
-      <c r="M10">
-        <v>3.250579435526329</v>
-      </c>
       <c r="N10">
-        <v>83.42682926829268</v>
+        <v>3.2505794355263289</v>
       </c>
       <c r="O10">
+        <v>83.426829268292678</v>
+      </c>
+      <c r="P10">
         <v>1.659558508695449</v>
       </c>
-      <c r="P10">
-        <v>70.61111111111111</v>
-      </c>
       <c r="Q10">
-        <v>4.411772270630164</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>LOUISIANA</t>
-        </is>
-      </c>
-      <c r="B11">
+        <v>70.611111111111114</v>
+      </c>
+      <c r="R10">
+        <v>4.4117722706301636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
         <v>32</v>
       </c>
-      <c r="C11">
-        <v>2.827777135739619</v>
-      </c>
       <c r="D11">
-        <v>66.70588235294117</v>
+        <v>2.8277771357396189</v>
       </c>
       <c r="E11">
-        <v>1.918878168515536</v>
+        <v>66.705882352941174</v>
       </c>
       <c r="F11">
+        <v>1.9188781685155361</v>
+      </c>
+      <c r="G11">
         <v>42.625</v>
       </c>
-      <c r="G11">
-        <v>4.00195264839553</v>
-      </c>
       <c r="H11">
-        <v>68.66666666666667</v>
+        <v>4.0019526483955303</v>
       </c>
       <c r="I11">
-        <v>2.204792759220492</v>
+        <v>68.666666666666671</v>
       </c>
       <c r="J11">
+        <v>2.2047927592204921</v>
+      </c>
+      <c r="K11">
         <v>80.5</v>
       </c>
-      <c r="K11">
-        <v>2.806243040080456</v>
-      </c>
       <c r="L11">
-        <v>70.18181818181819</v>
+        <v>2.8062430400804561</v>
       </c>
       <c r="M11">
+        <v>70.181818181818187</v>
+      </c>
+      <c r="N11">
         <v>2.43298612564957</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>78</v>
       </c>
-      <c r="O11">
-        <v>1.366260102127946</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MAINE</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>62.83333333333334</v>
+      <c r="P11">
+        <v>1.3662601021279459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
       </c>
       <c r="C12">
+        <v>62.833333333333343</v>
+      </c>
+      <c r="D12">
         <v>2.386303510546059</v>
       </c>
-      <c r="D12">
-        <v>71.83333333333333</v>
-      </c>
       <c r="E12">
+        <v>71.833333333333329</v>
+      </c>
+      <c r="F12">
         <v>3.655285366576885</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>77</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>84.5</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>69.5</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>82</v>
       </c>
-      <c r="O12">
-        <v>1.786190412715338</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MARYLAND</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>59.41666666666666</v>
+      <c r="P12">
+        <v>1.7861904127153381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>2.857523609083675</v>
+        <v>59.416666666666657</v>
       </c>
       <c r="D13">
-        <v>75.22222222222223</v>
+        <v>2.8575236090836751</v>
       </c>
       <c r="E13">
-        <v>1.426993630197608</v>
+        <v>75.222222222222229</v>
       </c>
       <c r="F13">
-        <v>57.21428571428572</v>
+        <v>1.4269936301976081</v>
       </c>
       <c r="G13">
-        <v>5.161507189047113</v>
+        <v>57.214285714285722</v>
       </c>
       <c r="H13">
+        <v>5.1615071890471134</v>
+      </c>
+      <c r="I13">
         <v>62</v>
       </c>
-      <c r="I13">
-        <v>4.330127018922194</v>
-      </c>
       <c r="J13">
+        <v>4.3301270189221936</v>
+      </c>
+      <c r="K13">
         <v>86.5625</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3.441393898449538</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>75.53125</v>
       </c>
-      <c r="M13">
-        <v>2.780688145495643</v>
-      </c>
       <c r="N13">
-        <v>87.27777777777777</v>
+        <v>2.7806881454956431</v>
       </c>
       <c r="O13">
-        <v>1.716520183271608</v>
+        <v>87.277777777777771</v>
       </c>
       <c r="P13">
-        <v>86.64285714285714</v>
+        <v>1.7165201832716079</v>
       </c>
       <c r="Q13">
+        <v>86.642857142857139</v>
+      </c>
+      <c r="R13">
         <v>2.465751806810474</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MASSACHUSETTS</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>63.47222222222222</v>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>2.292523345371915</v>
+        <v>63.472222222222221</v>
       </c>
       <c r="D14">
-        <v>71.71428571428571</v>
+        <v>2.2925233453719152</v>
       </c>
       <c r="E14">
+        <v>71.714285714285708</v>
+      </c>
+      <c r="F14">
         <v>1.76499889190769</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>57.68181818181818</v>
       </c>
-      <c r="G14">
-        <v>2.390354321429273</v>
-      </c>
-      <c r="J14">
+      <c r="H14">
+        <v>2.3903543214292728</v>
+      </c>
+      <c r="K14">
         <v>75.8</v>
       </c>
-      <c r="K14">
-        <v>3.900997023554078</v>
-      </c>
       <c r="L14">
-        <v>63.95161290322581</v>
+        <v>3.9009970235540781</v>
       </c>
       <c r="M14">
-        <v>2.638461880732877</v>
+        <v>63.951612903225808</v>
       </c>
       <c r="N14">
+        <v>2.6384618807328768</v>
+      </c>
+      <c r="O14">
         <v>85.16</v>
       </c>
-      <c r="O14">
-        <v>1.06497484879758</v>
-      </c>
       <c r="P14">
-        <v>65.33333333333333</v>
+        <v>1.0649748487975801</v>
       </c>
       <c r="Q14">
-        <v>3.456073558887954</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MICHIGAN</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>52.28985507246377</v>
+        <v>65.333333333333329</v>
+      </c>
+      <c r="R14">
+        <v>3.4560735588879541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>1.884941838056004</v>
+        <v>52.289855072463773</v>
       </c>
       <c r="D15">
-        <v>64.74025974025975</v>
+        <v>1.8849418380560039</v>
       </c>
       <c r="E15">
-        <v>1.582640641567962</v>
+        <v>64.740259740259745</v>
       </c>
       <c r="F15">
-        <v>57.525</v>
+        <v>1.5826406415679619</v>
       </c>
       <c r="G15">
+        <v>57.524999999999999</v>
+      </c>
+      <c r="H15">
         <v>3.261311287778196</v>
       </c>
-      <c r="H15">
-        <v>57.83333333333334</v>
-      </c>
       <c r="I15">
-        <v>6.009252125773315</v>
+        <v>57.833333333333343</v>
       </c>
       <c r="J15">
+        <v>6.0092521257733154</v>
+      </c>
+      <c r="K15">
         <v>78.25</v>
       </c>
-      <c r="K15">
-        <v>3.660549304697481</v>
-      </c>
       <c r="L15">
-        <v>62.68604651162791</v>
+        <v>3.6605493046974811</v>
       </c>
       <c r="M15">
-        <v>1.902017293006094</v>
+        <v>62.686046511627907</v>
       </c>
       <c r="N15">
-        <v>74.86842105263158</v>
+        <v>1.9020172930060939</v>
       </c>
       <c r="O15">
+        <v>74.868421052631575</v>
+      </c>
+      <c r="P15">
         <v>1.772459101080929</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>62.0625</v>
       </c>
-      <c r="Q15">
-        <v>5.477582153651372</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MISSOURI</t>
-        </is>
-      </c>
-      <c r="B16">
+      <c r="R15">
+        <v>5.4775821536513716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
         <v>72.95</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.626884406945748</v>
       </c>
-      <c r="D16">
-        <v>78.21666666666667</v>
-      </c>
       <c r="E16">
-        <v>1.450660438838897</v>
+        <v>78.216666666666669</v>
       </c>
       <c r="F16">
-        <v>57.83333333333334</v>
+        <v>1.4506604388388971</v>
       </c>
       <c r="G16">
-        <v>6.009252125773315</v>
+        <v>57.833333333333343</v>
       </c>
       <c r="H16">
+        <v>6.0092521257733154</v>
+      </c>
+      <c r="I16">
         <v>69.5</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>77</v>
       </c>
-      <c r="K16">
-        <v>9.409658158863513</v>
-      </c>
       <c r="L16">
+        <v>9.4096581588635129</v>
+      </c>
+      <c r="M16">
         <v>76.0625</v>
       </c>
-      <c r="M16">
-        <v>2.03964610901009</v>
-      </c>
       <c r="N16">
-        <v>85.83333333333333</v>
+        <v>2.0396461090100901</v>
       </c>
       <c r="O16">
+        <v>85.833333333333329</v>
+      </c>
+      <c r="P16">
         <v>1.295512443175076</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>92</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NEVADA</t>
-        </is>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
         <v>35</v>
       </c>
-      <c r="C17">
-        <v>6.300982538650694</v>
-      </c>
       <c r="D17">
-        <v>57.61111111111111</v>
+        <v>6.3009825386506941</v>
       </c>
       <c r="E17">
-        <v>5.817703929588173</v>
+        <v>57.611111111111107</v>
       </c>
       <c r="F17">
+        <v>5.8177039295881734</v>
+      </c>
+      <c r="G17">
         <v>37.25</v>
       </c>
-      <c r="G17">
-        <v>8.865899089582888</v>
-      </c>
       <c r="H17">
+        <v>8.8658990895828875</v>
+      </c>
+      <c r="I17">
         <v>57.5</v>
       </c>
-      <c r="I17">
-        <v>4.962358310319802</v>
-      </c>
       <c r="J17">
+        <v>4.9623583103198019</v>
+      </c>
+      <c r="K17">
         <v>67.5</v>
       </c>
-      <c r="K17">
-        <v>6.194755846681933</v>
-      </c>
       <c r="L17">
+        <v>6.1947558466819332</v>
+      </c>
+      <c r="M17">
         <v>61.0625</v>
       </c>
-      <c r="M17">
-        <v>5.746456594533464</v>
-      </c>
       <c r="N17">
-        <v>74.11111111111111</v>
+        <v>5.7464565945334636</v>
       </c>
       <c r="O17">
-        <v>5.386310952684809</v>
+        <v>74.111111111111114</v>
       </c>
       <c r="P17">
-        <v>62.66666666666666</v>
+        <v>5.3863109526848092</v>
       </c>
       <c r="Q17">
+        <v>62.666666666666657</v>
+      </c>
+      <c r="R17">
         <v>16.37409878775351</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NEW HAMPSHIRE</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>67.35714285714286</v>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
       </c>
       <c r="C18">
-        <v>3.511400286607768</v>
+        <v>67.357142857142861</v>
       </c>
       <c r="D18">
-        <v>69.71428571428571</v>
+        <v>3.5114002866077678</v>
       </c>
       <c r="E18">
-        <v>3.195713540668751</v>
+        <v>69.714285714285708</v>
       </c>
       <c r="F18">
+        <v>3.1957135406687511</v>
+      </c>
+      <c r="G18">
         <v>67</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>5</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>74.5</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>64.5</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>7.5</v>
       </c>
-      <c r="N18">
-        <v>85.85714285714286</v>
-      </c>
       <c r="O18">
+        <v>85.857142857142861</v>
+      </c>
+      <c r="P18">
         <v>2.567457250801632</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NEW JERSEY</t>
-        </is>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>75.375</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>3.162743087982284</v>
       </c>
-      <c r="D19">
-        <v>76.41304347826087</v>
-      </c>
       <c r="E19">
-        <v>3.055748838233383</v>
+        <v>76.413043478260875</v>
       </c>
       <c r="F19">
+        <v>3.0557488382333831</v>
+      </c>
+      <c r="G19">
         <v>66.375</v>
       </c>
-      <c r="G19">
-        <v>5.716842805838435</v>
-      </c>
-      <c r="J19">
+      <c r="H19">
+        <v>5.7168428058384348</v>
+      </c>
+      <c r="K19">
         <v>84.5</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2.5</v>
       </c>
-      <c r="L19">
-        <v>74.33333333333333</v>
-      </c>
       <c r="M19">
-        <v>4.29298713742442</v>
+        <v>74.333333333333329</v>
       </c>
       <c r="N19">
+        <v>4.2929871374244204</v>
+      </c>
+      <c r="O19">
         <v>87.19047619047619</v>
       </c>
-      <c r="O19">
-        <v>3.118011460025862</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>NEW YORK</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>45.32758620689656</v>
+      <c r="P19">
+        <v>3.1180114600258619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
       <c r="C20">
-        <v>2.556457244408578</v>
+        <v>45.327586206896562</v>
       </c>
       <c r="D20">
-        <v>69.52941176470588</v>
+        <v>2.5564572444085778</v>
       </c>
       <c r="E20">
-        <v>1.527551659195511</v>
+        <v>69.529411764705884</v>
       </c>
       <c r="F20">
-        <v>43.89393939393939</v>
+        <v>1.5275516591955109</v>
       </c>
       <c r="G20">
-        <v>2.040169237789995</v>
+        <v>43.893939393939391</v>
       </c>
       <c r="H20">
-        <v>53.78571428571428</v>
+        <v>2.0401692377899949</v>
       </c>
       <c r="I20">
+        <v>53.785714285714278</v>
+      </c>
+      <c r="J20">
         <v>3.523487758797319</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>77.56</v>
       </c>
-      <c r="K20">
-        <v>2.163199790433915</v>
-      </c>
       <c r="L20">
-        <v>60.08536585365854</v>
+        <v>2.1631997904339149</v>
       </c>
       <c r="M20">
+        <v>60.085365853658537</v>
+      </c>
+      <c r="N20">
         <v>1.875378208930621</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>78.21875</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>2.29992417437838</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>62</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>12.5</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>NORTH CAROLINA</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>59.40983606557377</v>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
       </c>
       <c r="C21">
-        <v>1.342175676280933</v>
+        <v>59.409836065573771</v>
       </c>
       <c r="D21">
-        <v>72.47692307692307</v>
+        <v>1.3421756762809329</v>
       </c>
       <c r="E21">
-        <v>0.807151833820773</v>
+        <v>72.476923076923072</v>
       </c>
       <c r="F21">
+        <v>0.80715183382077305</v>
+      </c>
+      <c r="G21">
         <v>49.5</v>
       </c>
-      <c r="G21">
-        <v>2.347829122253489</v>
-      </c>
       <c r="H21">
-        <v>67.81818181818181</v>
+        <v>2.3478291222534891</v>
       </c>
       <c r="I21">
-        <v>3.050538497375003</v>
+        <v>67.818181818181813</v>
       </c>
       <c r="J21">
+        <v>3.0505384973750029</v>
+      </c>
+      <c r="K21">
         <v>80.25</v>
       </c>
-      <c r="K21">
-        <v>3.243653990300324</v>
-      </c>
       <c r="L21">
-        <v>70.22641509433963</v>
+        <v>3.2436539903003241</v>
       </c>
       <c r="M21">
+        <v>70.226415094339629</v>
+      </c>
+      <c r="N21">
         <v>1.406983285688753</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>80.5703125</v>
       </c>
-      <c r="O21">
-        <v>0.8313866539048907</v>
-      </c>
       <c r="P21">
-        <v>74.35483870967742</v>
+        <v>0.83138665390489075</v>
       </c>
       <c r="Q21">
+        <v>74.354838709677423</v>
+      </c>
+      <c r="R21">
         <v>1.740441414221447</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>OHIO</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>70.63725490196079</v>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
       </c>
       <c r="C22">
+        <v>70.637254901960787</v>
+      </c>
+      <c r="D22">
         <v>1.895923306102351</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>75.81</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1.808646466509231</v>
       </c>
-      <c r="F22">
-        <v>46.45833333333334</v>
-      </c>
       <c r="G22">
-        <v>4.860344456139218</v>
+        <v>46.458333333333343</v>
       </c>
       <c r="H22">
+        <v>4.8603444561392184</v>
+      </c>
+      <c r="I22">
         <v>69.5</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>73</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>6.45174395028197</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>66.67647058823529</v>
       </c>
-      <c r="M22">
-        <v>3.098250566754481</v>
-      </c>
       <c r="N22">
-        <v>85.09433962264151</v>
+        <v>3.0982505667544809</v>
       </c>
       <c r="O22">
+        <v>85.094339622641513</v>
+      </c>
+      <c r="P22">
         <v>1.905231920967366</v>
       </c>
-      <c r="P22">
-        <v>67.92105263157895</v>
-      </c>
       <c r="Q22">
+        <v>67.921052631578945</v>
+      </c>
+      <c r="R22">
         <v>2.287859886972802</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>OREGON</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>42.48305084745763</v>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>1.837016538723582</v>
+        <v>42.483050847457633</v>
       </c>
       <c r="D23">
+        <v>1.8370165387235819</v>
+      </c>
+      <c r="E23">
         <v>60.8203125</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.364014884666864</v>
       </c>
-      <c r="F23">
-        <v>49.69117647058823</v>
-      </c>
       <c r="G23">
-        <v>2.100739907199742</v>
+        <v>49.691176470588232</v>
       </c>
       <c r="H23">
+        <v>2.1007399071997419</v>
+      </c>
+      <c r="I23">
         <v>49.31818181818182</v>
       </c>
-      <c r="I23">
-        <v>4.222382312947777</v>
-      </c>
       <c r="J23">
-        <v>76.09999999999999</v>
+        <v>4.2223823129477767</v>
       </c>
       <c r="K23">
-        <v>2.890130990605295</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="L23">
-        <v>55.51020408163265</v>
+        <v>2.8901309906052952</v>
       </c>
       <c r="M23">
-        <v>1.969662003744869</v>
+        <v>55.510204081632651</v>
       </c>
       <c r="N23">
+        <v>1.9696620037448691</v>
+      </c>
+      <c r="O23">
         <v>68.40625</v>
       </c>
-      <c r="O23">
-        <v>1.582035613236194</v>
-      </c>
       <c r="P23">
+        <v>1.5820356132361939</v>
+      </c>
+      <c r="Q23">
         <v>67</v>
       </c>
-      <c r="Q23">
-        <v>2.815108630462986</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>PENNSYLVANIA</t>
-        </is>
-      </c>
-      <c r="B24">
-        <v>74.81999999999999</v>
+      <c r="R23">
+        <v>2.8151086304629862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
       </c>
       <c r="C24">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="D24">
         <v>2.825166661750536</v>
       </c>
-      <c r="D24">
-        <v>75.76785714285714</v>
-      </c>
       <c r="E24">
+        <v>75.767857142857139</v>
+      </c>
+      <c r="F24">
         <v>2.30574422772531</v>
       </c>
-      <c r="F24">
-        <v>61.14285714285715</v>
-      </c>
       <c r="G24">
-        <v>4.540445601315294</v>
+        <v>61.142857142857153</v>
       </c>
       <c r="H24">
+        <v>4.5404456013152936</v>
+      </c>
+      <c r="I24">
         <v>49.5</v>
       </c>
-      <c r="J24">
-        <v>63.66666666666666</v>
-      </c>
       <c r="K24">
-        <v>7.120003121097943</v>
+        <v>63.666666666666657</v>
       </c>
       <c r="L24">
-        <v>69.73529411764706</v>
+        <v>7.1200031210979429</v>
       </c>
       <c r="M24">
-        <v>3.463867495687683</v>
+        <v>69.735294117647058</v>
       </c>
       <c r="N24">
-        <v>88.62162162162163</v>
+        <v>3.4638674956876829</v>
       </c>
       <c r="O24">
+        <v>88.621621621621628</v>
+      </c>
+      <c r="P24">
         <v>1.580830811023149</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>49.5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>RHODE ISLAND</t>
-        </is>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
         <v>57.875</v>
       </c>
-      <c r="C25">
-        <v>3.485426911810913</v>
-      </c>
       <c r="D25">
-        <v>64.20833333333333</v>
+        <v>3.4854269118109129</v>
       </c>
       <c r="E25">
-        <v>1.727077507575071</v>
+        <v>64.208333333333329</v>
       </c>
       <c r="F25">
+        <v>1.7270775075750711</v>
+      </c>
+      <c r="G25">
         <v>63.5</v>
       </c>
-      <c r="G25">
-        <v>4.911720676097125</v>
-      </c>
       <c r="H25">
+        <v>4.9117206760971248</v>
+      </c>
+      <c r="I25">
         <v>69.5</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>69.5</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2.5</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>63.1875</v>
       </c>
-      <c r="M25">
-        <v>5.546022947636827</v>
-      </c>
       <c r="N25">
-        <v>76.33333333333333</v>
+        <v>5.5460229476368266</v>
       </c>
       <c r="O25">
-        <v>3.48010216963685</v>
+        <v>76.333333333333329</v>
       </c>
       <c r="P25">
+        <v>3.4801021696368499</v>
+      </c>
+      <c r="Q25">
         <v>72</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2.5</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SOUTH DAKOTA</t>
-        </is>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
         <v>62</v>
       </c>
-      <c r="C26">
-        <v>4.448782605013046</v>
-      </c>
       <c r="D26">
-        <v>67.41666666666667</v>
+        <v>4.4487826050130463</v>
       </c>
       <c r="E26">
+        <v>67.416666666666671</v>
+      </c>
+      <c r="F26">
         <v>3.948452580160712</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>68.25</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.25</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>44</v>
       </c>
-      <c r="I26">
-        <v>8.852965604812887</v>
-      </c>
       <c r="J26">
+        <v>8.8529656048128871</v>
+      </c>
+      <c r="K26">
         <v>84.5</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>65.75</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>3.75</v>
       </c>
-      <c r="N26">
-        <v>87.42857142857143</v>
-      </c>
       <c r="O26">
-        <v>1.324802642213672</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>TEXAS</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>74.1541095890411</v>
+        <v>87.428571428571431</v>
+      </c>
+      <c r="P26">
+        <v>1.3248026422136721</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
       </c>
       <c r="C27">
-        <v>0.8560899825962692</v>
+        <v>74.154109589041099</v>
       </c>
       <c r="D27">
-        <v>83.18181818181819</v>
+        <v>0.85608998259626923</v>
       </c>
       <c r="E27">
-        <v>0.9868508270560709</v>
+        <v>83.181818181818187</v>
       </c>
       <c r="F27">
-        <v>57.43571428571428</v>
+        <v>0.98685082705607086</v>
       </c>
       <c r="G27">
-        <v>1.687149133175453</v>
+        <v>57.435714285714283</v>
       </c>
       <c r="H27">
-        <v>74.14285714285714</v>
+        <v>1.6871491331754529</v>
       </c>
       <c r="I27">
-        <v>3.009339204705842</v>
+        <v>74.142857142857139</v>
       </c>
       <c r="J27">
+        <v>3.0093392047058418</v>
+      </c>
+      <c r="K27">
         <v>87.859375</v>
       </c>
-      <c r="K27">
-        <v>2.452906683320141</v>
-      </c>
       <c r="L27">
-        <v>81.89510489510489</v>
+        <v>2.4529066833201409</v>
       </c>
       <c r="M27">
+        <v>81.895104895104893</v>
+      </c>
+      <c r="N27">
         <v>0.9262530829285901</v>
       </c>
-      <c r="N27">
-        <v>88.51307189542484</v>
-      </c>
       <c r="O27">
-        <v>0.8537104574998667</v>
+        <v>88.513071895424844</v>
       </c>
       <c r="P27">
-        <v>81.36842105263158</v>
+        <v>0.85371045749986674</v>
       </c>
       <c r="Q27">
-        <v>3.450324610812057</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>UTAH</t>
-        </is>
-      </c>
-      <c r="B28">
+        <v>81.368421052631575</v>
+      </c>
+      <c r="R27">
+        <v>3.4503246108120571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
         <v>58.5</v>
       </c>
-      <c r="C28">
-        <v>2.809237061106996</v>
-      </c>
       <c r="D28">
-        <v>67.85714285714286</v>
+        <v>2.8092370611069959</v>
       </c>
       <c r="E28">
-        <v>2.020178816090197</v>
+        <v>67.857142857142861</v>
       </c>
       <c r="F28">
+        <v>2.0201788160901968</v>
+      </c>
+      <c r="G28">
         <v>50</v>
       </c>
-      <c r="G28">
-        <v>2.610076627227638</v>
-      </c>
       <c r="H28">
-        <v>50.33333333333334</v>
+        <v>2.6100766272276381</v>
       </c>
       <c r="I28">
-        <v>2.124591463996994</v>
+        <v>50.333333333333343</v>
       </c>
       <c r="J28">
+        <v>2.1245914639969938</v>
+      </c>
+      <c r="K28">
         <v>70.75</v>
       </c>
-      <c r="K28">
-        <v>1.757918592477416</v>
-      </c>
       <c r="L28">
-        <v>61.59523809523809</v>
+        <v>1.7579185924774161</v>
       </c>
       <c r="M28">
-        <v>1.999886618101329</v>
+        <v>61.595238095238088</v>
       </c>
       <c r="N28">
+        <v>1.9998866181013291</v>
+      </c>
+      <c r="O28">
         <v>79.19047619047619</v>
       </c>
-      <c r="O28">
-        <v>1.903154083318691</v>
-      </c>
       <c r="P28">
+        <v>1.9031540833186911</v>
+      </c>
+      <c r="Q28">
         <v>69</v>
       </c>
-      <c r="Q28">
-        <v>5.385164807134504</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>VERMONT</t>
-        </is>
-      </c>
-      <c r="B29">
+      <c r="R28">
+        <v>5.3851648071345037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
         <v>64.5</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>77</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>84.5</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>82</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>84.5</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>WASHINGTON</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>55.73255813953488</v>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>1.434018434211804</v>
+        <v>55.732558139534881</v>
       </c>
       <c r="D30">
-        <v>68.64893617021276</v>
+        <v>1.4340184342118041</v>
       </c>
       <c r="E30">
+        <v>68.648936170212764</v>
+      </c>
+      <c r="F30">
         <v>0.9750616599135572</v>
       </c>
-      <c r="F30">
-        <v>51.27631578947368</v>
-      </c>
       <c r="G30">
-        <v>1.779616027002363</v>
+        <v>51.276315789473678</v>
       </c>
       <c r="H30">
-        <v>59.04545454545455</v>
+        <v>1.7796160270023631</v>
       </c>
       <c r="I30">
-        <v>2.476274670866018</v>
+        <v>59.045454545454547</v>
       </c>
       <c r="J30">
+        <v>2.4762746708660179</v>
+      </c>
+      <c r="K30">
         <v>78.32352941176471</v>
       </c>
-      <c r="K30">
-        <v>1.798058265537055</v>
-      </c>
       <c r="L30">
-        <v>64.38235294117646</v>
+        <v>1.7980582655370549</v>
       </c>
       <c r="M30">
+        <v>64.382352941176464</v>
+      </c>
+      <c r="N30">
         <v>1.27118214422437</v>
       </c>
-      <c r="N30">
-        <v>80.74193548387096</v>
-      </c>
       <c r="O30">
-        <v>0.8620218285872087</v>
+        <v>80.741935483870961</v>
       </c>
       <c r="P30">
+        <v>0.86202182858720866</v>
+      </c>
+      <c r="Q30">
         <v>72</v>
       </c>
-      <c r="Q30">
-        <v>1.389297325565528</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>WEST VIRGINIA</t>
-        </is>
-      </c>
-      <c r="B31">
+      <c r="R30">
+        <v>1.3892973255655281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
         <v>62</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>68</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>79</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>WYOMING</t>
-        </is>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
         <v>47</v>
       </c>
       <c r="C32">
-        <v>2.700308624336608</v>
+        <v>47</v>
       </c>
       <c r="D32">
+        <v>2.7003086243366079</v>
+      </c>
+      <c r="E32">
         <v>63.1</v>
       </c>
-      <c r="E32">
-        <v>4.467661580737736</v>
-      </c>
       <c r="F32">
+        <v>4.4676615807377358</v>
+      </c>
+      <c r="G32">
         <v>64.5</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>69.5</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>69.5</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>72</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>4.894725051862804</v>
       </c>
-      <c r="N32">
-        <v>80.33333333333333</v>
-      </c>
       <c r="O32">
-        <v>2.417528581929166</v>
+        <v>80.333333333333329</v>
+      </c>
+      <c r="P32">
+        <v>2.4175285819291661</v>
       </c>
     </row>
   </sheetData>
